--- a/data/trans_dic/P7A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &gt; 60 años</t>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>62,18%</t>
+          <t>44,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,81%</t>
+          <t>41,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>65,06%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>64,97%</t>
+          <t>58,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,18%</t>
+          <t>62,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>69,53%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>63,75%</t>
+          <t>63,87%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>60,56%</t>
+          <t>76,56%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>63,22%</t>
+          <t>51,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>52,73%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>52,15%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>52,08%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>61,62%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,89; 72,2</t>
+          <t>24,09; 60,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,31; 69,31</t>
+          <t>20,63; 59,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,33; 69,39</t>
+          <t>19,78; 58,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,2; 69,12</t>
+          <t>17,79; 58,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,31; 72,84</t>
+          <t>16,14; 67,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,99; 73,26</t>
+          <t>45,74; 71,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,26; 77,33</t>
+          <t>48,51; 74,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,73; 82,32</t>
+          <t>47,45; 74,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,93; 70,07</t>
+          <t>49,44; 75,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,58; 68,29</t>
+          <t>63,76; 86,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,8; 70,83</t>
+          <t>39,58; 64,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,64; 73,03</t>
+          <t>37,55; 65,34</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>36,44; 63,17</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>32,88; 63,89</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>39,38; 75,91</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>29,05%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26,58%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>38,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27,18%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>35,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30,09%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30,01%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>28,12%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>26,84%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>30,48%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>29,37%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>28,6%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,16%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>30,79%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>29,71%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>28,36%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>27,95%</t>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27,32%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>36,77%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,95; 37,33</t>
+          <t>25,38; 41,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,18; 36,03</t>
+          <t>24,07; 40,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,53; 34,26</t>
+          <t>21,88; 36,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,43; 33,42</t>
+          <t>19,77; 33,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,47; 36,48</t>
+          <t>28,86; 46,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,5; 34,73</t>
+          <t>21,9; 35,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,27; 33,97</t>
+          <t>22,13; 35,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,61; 34,8</t>
+          <t>21,04; 33,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,26; 35,27</t>
+          <t>21,74; 34,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,97; 33,79</t>
+          <t>28,7; 43,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,53; 32,39</t>
+          <t>25,54; 35,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,85; 32,38</t>
+          <t>24,96; 34,76</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23,71; 33,38</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>22,81; 32,41</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>31,23; 42,51</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>21,98%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>21,6%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20,2%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>28,37%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,95; 36,42</t>
+          <t>17,64; 32,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,94; 36,58</t>
+          <t>17,16; 32,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,43; 36,93</t>
+          <t>17,72; 33,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,73; 35,48</t>
+          <t>15,08; 29,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 26,67</t>
+          <t>23,61; 42,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,12; 25,8</t>
+          <t>14,98; 27,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,7; 26,37</t>
+          <t>14,42; 27,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,53; 26,2</t>
+          <t>13,51; 24,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,36; 29,35</t>
+          <t>13,12; 24,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 29,33</t>
+          <t>18,31; 33,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,69; 29,18</t>
+          <t>17,81; 28,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,3; 28,79</t>
+          <t>17,19; 27,44</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16,78; 26,68</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>15,58; 24,93</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>23,14; 34,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,72; 40,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,95; 38,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,96; 37,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,56; 36,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,16; 38,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 37,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,36; 37,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,47; 41,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,67; 37,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,82; 36,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,34; 36,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,19; 37,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31,11%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30,5%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29,17%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>37,17%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29,07%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28,59%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,66%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>39,6%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30,04%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>28,87%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>28,27%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>38,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25,41; 36,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24,01; 35,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 34,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21,0; 32,2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29,76; 43,36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24,99; 33,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25,6; 34,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>24,46; 33,16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25,28; 34,43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33,48; 45,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26,26; 33,57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>26,52; 33,58</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>25,26; 32,1</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>24,82; 31,79</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>34,03; 42,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,82%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>46019</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>54645</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43431</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45216</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>77494</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>68798</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>88447</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>70787</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>76991</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>163806</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>114817</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>143092</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>114217</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>122207</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>241300</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24895; 62846</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26583; 76936</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20861; 61548</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20308; 66523</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28675; 120505</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>53886; 83847</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>69120; 106418</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53887; 84881</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>59600; 91523</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>136425; 186108</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>87535; 141598</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>101885; 177302</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>79811; 138353</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>77151; 149927</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>154229; 297261</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>118639</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>135789</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>108805</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>105682</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>195350</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>109063</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>131818</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>102098</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>104070</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>175547</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>227702</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>267606</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>210903</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>209752</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>370896</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>92901; 151594</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>102817; 172417</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>81923; 137925</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>78608; 135154</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>148370; 240842</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>85549; 139202</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>102786; 166717</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>79018; 127576</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>80479; 128739</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>141956; 214289</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>193243; 265823</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>222579; 309930</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>177849; 250346</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>175155; 248845</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>315014; 428862</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>70292</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>80671</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>70098</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>60282</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>113227</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>74479</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>86689</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>64977</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>61117</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96361</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>144770</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>167360</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>135075</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>121399</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>209588</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>50448; 93502</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>57122; 107163</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>50033; 93753</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41535; 80924</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81954; 146918</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53882; 100566</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>61764; 116133</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46303; 85453</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42714; 81053</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>71726; 131128</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>114976; 182548</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>130843; 208891</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>104925; 166780</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>93616; 149840</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>170911; 252841</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>234949</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>271106</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>222334</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>211180</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>386070</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>252340</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>306953</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>237861</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>242177</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>435714</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>487289</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>578059</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>460195</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>453357</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>821784</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>191932; 276689</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>213424; 316590</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>179019; 261667</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>165291; 253485</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>309156; 450421</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>216926; 294574</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>265055; 357922</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>203512; 275896</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>206410; 281137</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>368403; 497046</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>426300; 544957</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>510375; 646131</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>402749; 511707</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>397974; 509717</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>727834; 910412</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
